--- a/data/case1/9/Qlm2_6.xlsx
+++ b/data/case1/9/Qlm2_6.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.25806292829665267</v>
+        <v>-0.23349936394030379</v>
       </c>
       <c r="B1" s="0">
-        <v>0.25739941759336205</v>
+        <v>0.23298147336571162</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.19991273698686296</v>
+        <v>-0.18764099340159124</v>
       </c>
       <c r="B2" s="0">
-        <v>0.1983649852076681</v>
+        <v>0.1862926465177237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.14864616293290389</v>
+        <v>-0.13657563870962797</v>
       </c>
       <c r="B3" s="0">
-        <v>0.14816338108692761</v>
+        <v>0.13618488982467802</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.14016338110243254</v>
+        <v>-0.12818488984966514</v>
       </c>
       <c r="B4" s="0">
-        <v>0.13943182363168205</v>
+        <v>0.12757270615337291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.13643182364124584</v>
+        <v>-0.12457270616835725</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13391160053396067</v>
+        <v>0.12247396332411142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.034598156130522639</v>
+        <v>-0.023179846315025898</v>
       </c>
       <c r="B6" s="0">
-        <v>0.034244553284802137</v>
+        <v>0.022956069177119787</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.024244553307525063</v>
+        <v>-0.012956069213228893</v>
       </c>
       <c r="B7" s="0">
-        <v>0.024167675491589602</v>
+        <v>0.012914651945274969</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.031969175152217755</v>
+        <v>-0.031957598239634954</v>
       </c>
       <c r="B8" s="0">
-        <v>0.031676602315210189</v>
+        <v>0.031668317620953346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.02967660232779723</v>
+        <v>-0.029668317639941932</v>
       </c>
       <c r="B9" s="0">
-        <v>0.02943076275296308</v>
+        <v>0.029425256853057302</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.027430762766414318</v>
+        <v>-0.027425256873421233</v>
       </c>
       <c r="B10" s="0">
-        <v>0.027413315279437356</v>
+        <v>0.027408278317480494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024413315294424365</v>
+        <v>-0.024408278340398937</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024385127616723956</v>
+        <v>0.024380534312975044</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020885127632607858</v>
+        <v>-0.020880534337439638</v>
       </c>
       <c r="B12" s="0">
-        <v>0.02068079754101726</v>
+        <v>0.020678498479817176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.01718079755778934</v>
+        <v>-0.017178498505675321</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017087428011793193</v>
+        <v>0.017086248921816427</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090874280352712944</v>
+        <v>-0.0090862489587566486</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090566303172936458</v>
+        <v>0.0090558904492672454</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080566303308815534</v>
+        <v>-0.008055890469878868</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080367154273499608</v>
+        <v>0.0080362656873678162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060367154425424729</v>
+        <v>-0.0060362657106090012</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060039596664434036</v>
+        <v>0.0060038491088953982</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040039596818681744</v>
+        <v>-0.0040038491324985159</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999816409115</v>
+        <v>0.0039999999715565338</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.081497943307489606</v>
+        <v>-0.060866368541727667</v>
       </c>
       <c r="B18" s="0">
-        <v>0.081332430373677767</v>
+        <v>0.060764663039400091</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.077332430380189443</v>
+        <v>-0.056764663049903241</v>
       </c>
       <c r="B19" s="0">
-        <v>0.076095148025292936</v>
+        <v>0.05603230883929422</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.07209514803445316</v>
+        <v>-0.05203230885295973</v>
       </c>
       <c r="B20" s="0">
-        <v>0.071725414310732205</v>
+        <v>0.051825178499450786</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040059398357321641</v>
+        <v>-0.0040058662946007573</v>
       </c>
       <c r="B21" s="0">
-        <v>0.00399999999011591</v>
+        <v>0.0039999999854893886</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045718822283298266</v>
+        <v>-0.045717007821753697</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045503183664511226</v>
+        <v>0.045501988298912721</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040503183674933219</v>
+        <v>-0.040501988315685189</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099960365600928</v>
+        <v>0.040099699145535794</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099960398406225</v>
+        <v>-0.020099699199198184</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999966798576</v>
+        <v>0.019999999945681246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097313444414497852</v>
+        <v>-0.097294117026025972</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097184193279497677</v>
+        <v>0.097166216167233088</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094684193291769247</v>
+        <v>-0.094666216186096719</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094518517629394339</v>
+        <v>0.09450207415337708</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.09201851764228941</v>
+        <v>-0.092002074173309634</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091042556146608611</v>
+        <v>0.091033798632786045</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089042556161452957</v>
+        <v>-0.089033798655783869</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088374188272090315</v>
+        <v>0.088370737128710353</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081374188296104322</v>
+        <v>-0.081370737166752249</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081180002252525973</v>
+        <v>0.081178194826104111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021180002353677896</v>
+        <v>-0.021178194991379407</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021025792800859033</v>
+        <v>0.021025230108056903</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.01402579282660632</v>
+        <v>-0.014025230148831724</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001794474285845</v>
+        <v>0.014001642118330437</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040017945044450443</v>
+        <v>-0.004001642166405972</v>
       </c>
       <c r="B32" s="0">
-        <v>0.003999999978427482</v>
+        <v>0.0039999999660942365</v>
       </c>
     </row>
   </sheetData>
